--- a/data/trans_orig/P1806_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7BC03B9-C667-4088-A47D-2253A9788521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7BB6D18-8796-4F01-A613-176194BDE89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{810114A9-4D55-4F1D-9DDD-3A13C186F660}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2BF04AE5-2195-41D7-8519-C77BC9920B12}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un podólogo en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -77,22 +77,25 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>5,61%</t>
+    <t>5,78%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>5,04%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +104,7 @@
     <t>98,06%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>94,22%</t>
   </si>
   <si>
     <t>99,49%</t>
@@ -110,16 +113,19 @@
     <t>96,65%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>94,96%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,55 +137,55 @@
     <t>1,72%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -188,49 +194,55 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>3,44%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>96,56%</t>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -239,73 +251,73 @@
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>3,99%</t>
@@ -314,82 +326,88 @@
     <t>3,11%</t>
   </si>
   <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>93,34%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>2,45%</t>
@@ -398,16 +416,16 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>3,1%</t>
+    <t>3,02%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>3,88%</t>
@@ -422,7 +440,7 @@
     <t>97,55%</t>
   </si>
   <si>
-    <t>96,9%</t>
+    <t>96,98%</t>
   </si>
   <si>
     <t>98,04%</t>
@@ -431,10 +449,10 @@
     <t>94,84%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>96,12%</t>
@@ -858,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B61B887-26B9-4C51-9EB5-2A35D0ED3BA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F5746B-DB2C-4CF8-B725-4345D685E82D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1015,16 +1033,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>169</v>
@@ -1033,13 +1051,13 @@
         <v>370336</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>201</v>
@@ -1048,13 +1066,13 @@
         <v>343068</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
@@ -1063,13 +1081,13 @@
         <v>713404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1084,13 +1102,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -1099,13 +1117,13 @@
         <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -1114,18 +1132,18 @@
         <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1137,13 +1155,13 @@
         <v>7358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -1152,13 +1170,13 @@
         <v>11302</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1167,19 +1185,19 @@
         <v>18660</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>298</v>
@@ -1188,13 +1206,13 @@
         <v>421038</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -1203,13 +1221,13 @@
         <v>487275</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
@@ -1218,13 +1236,13 @@
         <v>908313</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1239,13 +1257,13 @@
         <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>460</v>
@@ -1254,13 +1272,13 @@
         <v>498577</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>762</v>
@@ -1269,18 +1287,18 @@
         <v>926973</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1292,13 +1310,13 @@
         <v>11680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -1307,13 +1325,13 @@
         <v>16386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -1322,19 +1340,19 @@
         <v>28066</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>536</v>
@@ -1343,13 +1361,13 @@
         <v>545572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>823</v>
@@ -1358,13 +1376,13 @@
         <v>567090</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1359</v>
@@ -1373,13 +1391,13 @@
         <v>1112661</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,13 +1412,13 @@
         <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>846</v>
@@ -1409,13 +1427,13 @@
         <v>583476</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1392</v>
@@ -1424,18 +1442,18 @@
         <v>1140727</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1447,13 +1465,13 @@
         <v>11457</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -1462,13 +1480,13 @@
         <v>39387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -1477,19 +1495,19 @@
         <v>50844</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>654</v>
@@ -1498,13 +1516,13 @@
         <v>712533</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>1080</v>
@@ -1513,28 +1531,28 @@
         <v>707874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1734</v>
       </c>
       <c r="N14" s="7">
-        <v>1420408</v>
+        <v>1420407</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,13 +1567,13 @@
         <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1141</v>
@@ -1564,33 +1582,33 @@
         <v>747261</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1602,13 +1620,13 @@
         <v>10317</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -1617,13 +1635,13 @@
         <v>37454</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -1632,19 +1650,19 @@
         <v>47771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>653</v>
@@ -1653,13 +1671,13 @@
         <v>589840</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>939</v>
@@ -1668,13 +1686,13 @@
         <v>558884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1592</v>
@@ -1683,13 +1701,13 @@
         <v>1148724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,13 +1722,13 @@
         <v>600157</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>1001</v>
@@ -1719,13 +1737,13 @@
         <v>596338</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1664</v>
@@ -1734,18 +1752,18 @@
         <v>1196495</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1757,13 +1775,13 @@
         <v>34900</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>142</v>
@@ -1772,13 +1790,13 @@
         <v>79924</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>196</v>
@@ -1787,34 +1805,34 @@
         <v>114824</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>974</v>
       </c>
       <c r="D20" s="7">
-        <v>662854</v>
+        <v>662855</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>1565</v>
@@ -1823,13 +1841,13 @@
         <v>946088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>2539</v>
@@ -1838,13 +1856,13 @@
         <v>1608943</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,16 +1874,16 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>1707</v>
@@ -1874,13 +1892,13 @@
         <v>1026012</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>2735</v>
@@ -1889,13 +1907,13 @@
         <v>1723767</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1930,13 @@
         <v>83055</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>303</v>
@@ -1927,13 +1945,13 @@
         <v>196343</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>395</v>
@@ -1942,19 +1960,19 @@
         <v>279397</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3284</v>
@@ -1963,13 +1981,13 @@
         <v>3302173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>5059</v>
@@ -1978,13 +1996,13 @@
         <v>3610279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>8343</v>
@@ -1993,13 +2011,13 @@
         <v>6912453</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +2032,13 @@
         <v>3385228</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>5362</v>
@@ -2029,13 +2047,13 @@
         <v>3806622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>8738</v>
@@ -2044,18 +2062,18 @@
         <v>7191850</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1806_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7BB6D18-8796-4F01-A613-176194BDE89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68B373C6-2876-451B-AD01-3ABE40502FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2BF04AE5-2195-41D7-8519-C77BC9920B12}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A242537E-4848-4F1C-BC40-1A984D005CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F5746B-DB2C-4CF8-B725-4345D685E82D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164BD18B-1C72-46CF-8A1A-FBF574D2B94B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1806_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68B373C6-2876-451B-AD01-3ABE40502FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB2539D-659E-4C04-8583-F49F4916E79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A242537E-4848-4F1C-BC40-1A984D005CD6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E6229115-82F5-428E-9C08-29D8E7CB4DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un podólogo en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -77,25 +77,22 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>5,78%</t>
+    <t>5,61%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>5,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +101,7 @@
     <t>98,06%</t>
   </si>
   <si>
-    <t>94,22%</t>
+    <t>94,39%</t>
   </si>
   <si>
     <t>99,49%</t>
@@ -113,19 +110,16 @@
     <t>96,65%</t>
   </si>
   <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>94,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +131,55 @@
     <t>1,72%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +188,49 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>3,44%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>96,56%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,73 +239,73 @@
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>3,99%</t>
@@ -326,28 +314,28 @@
     <t>3,11%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>94,99%</t>
+    <t>95,0%</t>
   </si>
   <si>
     <t>96,89%</t>
@@ -356,58 +344,52 @@
     <t>65 y más</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>93,34%</t>
   </si>
   <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>2,45%</t>
@@ -416,16 +398,16 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>3,88%</t>
@@ -440,7 +422,7 @@
     <t>97,55%</t>
   </si>
   <si>
-    <t>96,98%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>98,04%</t>
@@ -449,10 +431,10 @@
     <t>94,84%</t>
   </si>
   <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>96,12%</t>
@@ -876,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164BD18B-1C72-46CF-8A1A-FBF574D2B94B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF190B91-E6EA-43D4-8ED0-44C1147B9067}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1033,16 +1015,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>169</v>
@@ -1051,13 +1033,13 @@
         <v>370336</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>201</v>
@@ -1066,13 +1048,13 @@
         <v>343068</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
@@ -1081,13 +1063,13 @@
         <v>713404</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1102,13 +1084,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -1117,13 +1099,13 @@
         <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -1132,18 +1114,18 @@
         <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1155,13 +1137,13 @@
         <v>7358</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -1170,13 +1152,13 @@
         <v>11302</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1185,19 +1167,19 @@
         <v>18660</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>298</v>
@@ -1206,13 +1188,13 @@
         <v>421038</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -1221,13 +1203,13 @@
         <v>487275</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
@@ -1236,13 +1218,13 @@
         <v>908313</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1257,13 +1239,13 @@
         <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>460</v>
@@ -1272,13 +1254,13 @@
         <v>498577</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>762</v>
@@ -1287,18 +1269,18 @@
         <v>926973</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1310,13 +1292,13 @@
         <v>11680</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -1325,13 +1307,13 @@
         <v>16386</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -1340,19 +1322,19 @@
         <v>28066</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>536</v>
@@ -1361,13 +1343,13 @@
         <v>545572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>823</v>
@@ -1376,13 +1358,13 @@
         <v>567090</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>1359</v>
@@ -1391,13 +1373,13 @@
         <v>1112661</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1412,13 +1394,13 @@
         <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>846</v>
@@ -1427,13 +1409,13 @@
         <v>583476</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1392</v>
@@ -1442,18 +1424,18 @@
         <v>1140727</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1465,13 +1447,13 @@
         <v>11457</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -1480,13 +1462,13 @@
         <v>39387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -1495,19 +1477,19 @@
         <v>50844</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>654</v>
@@ -1516,13 +1498,13 @@
         <v>712533</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>1080</v>
@@ -1531,28 +1513,28 @@
         <v>707874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1734</v>
       </c>
       <c r="N14" s="7">
-        <v>1420407</v>
+        <v>1420408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,13 +1549,13 @@
         <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1141</v>
@@ -1582,33 +1564,33 @@
         <v>747261</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1620,13 +1602,13 @@
         <v>10317</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -1635,13 +1617,13 @@
         <v>37454</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -1650,19 +1632,19 @@
         <v>47771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>653</v>
@@ -1671,13 +1653,13 @@
         <v>589840</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>939</v>
@@ -1686,13 +1668,13 @@
         <v>558884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1592</v>
@@ -1701,13 +1683,13 @@
         <v>1148724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,13 +1704,13 @@
         <v>600157</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1001</v>
@@ -1737,13 +1719,13 @@
         <v>596338</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1664</v>
@@ -1752,18 +1734,18 @@
         <v>1196495</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1757,13 @@
         <v>34900</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>142</v>
@@ -1790,13 +1772,13 @@
         <v>79924</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>196</v>
@@ -1805,34 +1787,34 @@
         <v>114824</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>974</v>
       </c>
       <c r="D20" s="7">
-        <v>662855</v>
+        <v>662854</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>1565</v>
@@ -1841,13 +1823,13 @@
         <v>946088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>2539</v>
@@ -1856,13 +1838,13 @@
         <v>1608943</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,16 +1856,16 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>1707</v>
@@ -1892,13 +1874,13 @@
         <v>1026012</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>2735</v>
@@ -1907,13 +1889,13 @@
         <v>1723767</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1912,13 @@
         <v>83055</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>303</v>
@@ -1945,13 +1927,13 @@
         <v>196343</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>395</v>
@@ -1960,19 +1942,19 @@
         <v>279397</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3284</v>
@@ -1981,13 +1963,13 @@
         <v>3302173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>5059</v>
@@ -1996,13 +1978,13 @@
         <v>3610279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>8343</v>
@@ -2011,13 +1993,13 @@
         <v>6912453</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2014,13 @@
         <v>3385228</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>5362</v>
@@ -2047,13 +2029,13 @@
         <v>3806622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>8738</v>
@@ -2062,18 +2044,18 @@
         <v>7191850</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1806_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB2539D-659E-4C04-8583-F49F4916E79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{157EAE2B-FAB2-4345-80F2-BE466719B4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E6229115-82F5-428E-9C08-29D8E7CB4DD3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0AC34DDD-0A09-4932-A375-FF1844225C00}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="156">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un podólogo en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -65,385 +65,442 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -858,8 +915,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF190B91-E6EA-43D4-8ED0-44C1147B9067}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E7DFCF-C995-4146-A9F0-E46D7E1B66FC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -979,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>7343</v>
+        <v>7259</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -994,7 +1051,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>11889</v>
+        <v>10889</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1009,16 +1066,16 @@
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>19232</v>
+        <v>18148</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1030,7 +1087,7 @@
         <v>169</v>
       </c>
       <c r="D5" s="7">
-        <v>370336</v>
+        <v>392728</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1045,7 +1102,7 @@
         <v>201</v>
       </c>
       <c r="I5" s="7">
-        <v>343068</v>
+        <v>302311</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1060,16 +1117,16 @@
         <v>370</v>
       </c>
       <c r="N5" s="7">
-        <v>713404</v>
+        <v>695039</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1081,7 +1138,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -1096,7 +1153,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -1111,7 +1168,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -1134,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>7358</v>
+        <v>7583</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -1149,7 +1206,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>11302</v>
+        <v>10285</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1164,7 +1221,7 @@
         <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>18660</v>
+        <v>17868</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1185,7 +1242,7 @@
         <v>298</v>
       </c>
       <c r="D8" s="7">
-        <v>421038</v>
+        <v>415964</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1200,7 +1257,7 @@
         <v>451</v>
       </c>
       <c r="I8" s="7">
-        <v>487275</v>
+        <v>501219</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1215,7 +1272,7 @@
         <v>749</v>
       </c>
       <c r="N8" s="7">
-        <v>908313</v>
+        <v>917183</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1236,7 +1293,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -1251,7 +1308,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -1266,7 +1323,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -1289,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>11680</v>
+        <v>11496</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1304,7 +1361,7 @@
         <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>16386</v>
+        <v>15232</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -1319,16 +1376,16 @@
         <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>28066</v>
+        <v>26728</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,46 +1397,46 @@
         <v>536</v>
       </c>
       <c r="D11" s="7">
-        <v>545572</v>
+        <v>524842</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>823</v>
       </c>
       <c r="I11" s="7">
-        <v>567090</v>
+        <v>527236</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1359</v>
       </c>
       <c r="N11" s="7">
-        <v>1112661</v>
+        <v>1052078</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1391,7 +1448,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -1406,7 +1463,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -1421,7 +1478,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -1435,7 +1492,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1444,46 +1501,46 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>11457</v>
+        <v>10597</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>39387</v>
+        <v>36444</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
       </c>
       <c r="N13" s="7">
-        <v>50844</v>
+        <v>47041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,46 +1552,46 @@
         <v>654</v>
       </c>
       <c r="D14" s="7">
-        <v>712533</v>
+        <v>877189</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>1080</v>
       </c>
       <c r="I14" s="7">
-        <v>707874</v>
+        <v>676437</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>1734</v>
       </c>
       <c r="N14" s="7">
-        <v>1420408</v>
+        <v>1553626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,7 +1603,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -1561,7 +1618,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -1576,7 +1633,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -1599,43 +1656,43 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>10317</v>
+        <v>9748</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
       </c>
       <c r="I16" s="7">
-        <v>37454</v>
+        <v>34591</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
       </c>
       <c r="N16" s="7">
-        <v>47771</v>
+        <v>44340</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>92</v>
@@ -1650,46 +1707,46 @@
         <v>653</v>
       </c>
       <c r="D17" s="7">
-        <v>589840</v>
+        <v>551486</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>939</v>
       </c>
       <c r="I17" s="7">
-        <v>558884</v>
+        <v>512636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>1592</v>
       </c>
       <c r="N17" s="7">
-        <v>1148724</v>
+        <v>1064120</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,7 +1758,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -1716,7 +1773,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>596338</v>
+        <v>547227</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -1731,7 +1788,7 @@
         <v>1664</v>
       </c>
       <c r="N18" s="7">
-        <v>1196495</v>
+        <v>1108460</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -1751,49 +1808,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>34900</v>
+        <v>19996</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="7">
+        <v>60</v>
+      </c>
+      <c r="I19" s="7">
+        <v>29713</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="7">
         <v>92</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>142</v>
-      </c>
-      <c r="I19" s="7">
-        <v>79924</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="7">
-        <v>196</v>
-      </c>
       <c r="N19" s="7">
-        <v>114824</v>
+        <v>49709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,49 +1859,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>974</v>
+        <v>538</v>
       </c>
       <c r="D20" s="7">
-        <v>662854</v>
+        <v>348169</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>1565</v>
+        <v>767</v>
       </c>
       <c r="I20" s="7">
-        <v>946088</v>
+        <v>578655</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>2539</v>
+        <v>1305</v>
       </c>
       <c r="N20" s="7">
-        <v>1608943</v>
+        <v>926824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,10 +1910,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -1868,10 +1925,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026012</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -1883,10 +1940,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>2735</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1723767</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -1900,55 +1957,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>83055</v>
+        <v>12947</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="I22" s="7">
-        <v>196343</v>
+        <v>42242</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
-        <v>395</v>
+        <v>104</v>
       </c>
       <c r="N22" s="7">
-        <v>279397</v>
+        <v>55189</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,49 +2014,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3284</v>
+        <v>436</v>
       </c>
       <c r="D23" s="7">
-        <v>3302173</v>
+        <v>269812</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
-        <v>5059</v>
+        <v>798</v>
       </c>
       <c r="I23" s="7">
-        <v>3610279</v>
+        <v>383023</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
-        <v>8343</v>
+        <v>1234</v>
       </c>
       <c r="N23" s="7">
-        <v>6912453</v>
+        <v>652835</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,63 +2065,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425265</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708024</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>92</v>
+      </c>
+      <c r="D25" s="7">
+        <v>79627</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="7">
+        <v>303</v>
+      </c>
+      <c r="I25" s="7">
+        <v>179396</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="7">
+        <v>395</v>
+      </c>
+      <c r="N25" s="7">
+        <v>259023</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3284</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3380190</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5059</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3481517</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8343</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6861707</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>5362</v>
       </c>
-      <c r="I24" s="7">
-        <v>3806622</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3660913</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>8738</v>
       </c>
-      <c r="N24" s="7">
-        <v>7191850</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="N27" s="7">
+        <v>7120730</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
